--- a/documentos/Mapas.xlsx
+++ b/documentos/Mapas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Informatica_II\Proyecto_Final\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusti\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC83B9C-3FAC-463C-85EC-F914F51E9279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793338D0-3BF5-4BED-A97A-2A6BFB0ADC60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nivel_1" sheetId="1" r:id="rId1"/>
@@ -390,13 +390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DM5" sqref="DM5"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DA12" sqref="DA10:DB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+32</f>
         <v>65</v>
@@ -1302,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AX18" si="1">AI2+32</f>
+        <f t="shared" ref="AI3:AX14" si="1">AI2+32</f>
         <v>66</v>
       </c>
       <c r="AJ3" s="1">
@@ -1366,7 +1366,7 @@
         <v>81</v>
       </c>
       <c r="AY3" s="2">
-        <f t="shared" ref="AY3:BM18" si="2">AY2+32</f>
+        <f t="shared" ref="AY3:BM15" si="2">AY2+32</f>
         <v>82</v>
       </c>
       <c r="AZ3" s="1">
@@ -1430,7 +1430,7 @@
         <v>65</v>
       </c>
       <c r="BP3" s="1">
-        <f t="shared" ref="BP3:CE18" si="3">BP2+32</f>
+        <f t="shared" ref="BP3:CE14" si="3">BP2+32</f>
         <v>66</v>
       </c>
       <c r="BQ3" s="1">
@@ -1494,7 +1494,7 @@
         <v>81</v>
       </c>
       <c r="CF3" s="1">
-        <f t="shared" ref="CF3:CT18" si="4">CF2+32</f>
+        <f t="shared" ref="CF3:CT15" si="4">CF2+32</f>
         <v>82</v>
       </c>
       <c r="CG3" s="1">
@@ -1558,7 +1558,7 @@
         <v>65</v>
       </c>
       <c r="CW3" s="1">
-        <f t="shared" ref="CW3:DL18" si="5">CW2+32</f>
+        <f t="shared" ref="CW3:DL14" si="5">CW2+32</f>
         <v>66</v>
       </c>
       <c r="CX3" s="1">
@@ -1601,7 +1601,7 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="DH3" s="2">
+      <c r="DH3" s="1">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>81</v>
       </c>
       <c r="DM3" s="1">
-        <f t="shared" ref="DM3:EA18" si="6">DM2+32</f>
+        <f t="shared" ref="DM3:EA15" si="6">DM2+32</f>
         <v>82</v>
       </c>
       <c r="DN3" s="1">
@@ -1645,7 +1645,7 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="DS3" s="2">
+      <c r="DS3" s="1">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A18" si="7">A3+32</f>
         <v>97</v>
@@ -2196,7 +2196,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -2609,7 +2609,7 @@
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="DC5" s="2">
+      <c r="DC5" s="1">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
@@ -2649,7 +2649,7 @@
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="DM5" s="2">
+      <c r="DM5" s="1">
         <f t="shared" si="6"/>
         <v>146</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="7"/>
         <v>161</v>
@@ -3107,11 +3107,11 @@
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="CY6" s="1">
+      <c r="CY6" s="2">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="CZ6" s="1">
+      <c r="CZ6" s="2">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
@@ -3139,11 +3139,11 @@
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-      <c r="DG6" s="1">
+      <c r="DG6" s="2">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="DH6" s="1">
+      <c r="DH6" s="2">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
@@ -3171,11 +3171,11 @@
         <f t="shared" si="6"/>
         <v>179</v>
       </c>
-      <c r="DO6" s="1">
+      <c r="DO6" s="2">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="DP6" s="1">
+      <c r="DP6" s="2">
         <f t="shared" si="6"/>
         <v>181</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="7"/>
         <v>193</v>
@@ -3661,7 +3661,7 @@
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="DI7" s="2">
+      <c r="DI7" s="1">
         <f t="shared" si="5"/>
         <v>206</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="7"/>
         <v>225</v>
@@ -4252,7 +4252,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="7"/>
         <v>257</v>
@@ -4669,7 +4669,7 @@
         <f t="shared" si="5"/>
         <v>264</v>
       </c>
-      <c r="DD9" s="1">
+      <c r="DD9" s="2">
         <f t="shared" si="5"/>
         <v>265</v>
       </c>
@@ -4697,11 +4697,11 @@
         <f t="shared" si="5"/>
         <v>271</v>
       </c>
-      <c r="DK9" s="1">
+      <c r="DK9" s="2">
         <f t="shared" si="5"/>
         <v>272</v>
       </c>
-      <c r="DL9" s="1">
+      <c r="DL9" s="2">
         <f t="shared" si="5"/>
         <v>273</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="7"/>
         <v>289</v>
@@ -5215,7 +5215,7 @@
         <f t="shared" si="5"/>
         <v>304</v>
       </c>
-      <c r="DL10" s="2">
+      <c r="DL10" s="1">
         <f t="shared" si="5"/>
         <v>305</v>
       </c>
@@ -5227,7 +5227,7 @@
         <f t="shared" si="6"/>
         <v>307</v>
       </c>
-      <c r="DO10" s="2">
+      <c r="DO10" s="1">
         <f t="shared" si="6"/>
         <v>308</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="7"/>
         <v>321</v>
@@ -5681,7 +5681,7 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
-      <c r="CZ11" s="2">
+      <c r="CZ11" s="1">
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="7"/>
         <v>353</v>
@@ -6191,11 +6191,11 @@
         <f t="shared" si="5"/>
         <v>355</v>
       </c>
-      <c r="CY12" s="1">
+      <c r="CY12" s="2">
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="CZ12" s="1">
+      <c r="CZ12" s="2">
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
@@ -6227,7 +6227,7 @@
         <f t="shared" si="5"/>
         <v>364</v>
       </c>
-      <c r="DH12" s="1">
+      <c r="DH12" s="2">
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
@@ -6255,11 +6255,11 @@
         <f t="shared" si="6"/>
         <v>371</v>
       </c>
-      <c r="DO12" s="1">
+      <c r="DO12" s="2">
         <f t="shared" si="6"/>
         <v>372</v>
       </c>
-      <c r="DP12" s="1">
+      <c r="DP12" s="2">
         <f t="shared" si="6"/>
         <v>373</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="7"/>
         <v>385</v>
@@ -6822,7 +6822,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="7"/>
         <v>417</v>
@@ -7336,7 +7336,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="7"/>
         <v>449</v>
@@ -7850,7 +7850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -8364,7 +8364,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -8878,7 +8878,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="7"/>
         <v>545</v>
@@ -9406,9 +9406,9 @@
       <selection activeCell="AI3" sqref="AI3:AP3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -10180,13 +10180,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+32</f>
         <v>65</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:Q18" si="0">B2+32</f>
+        <f t="shared" ref="B3:Q14" si="0">B2+32</f>
         <v>66</v>
       </c>
       <c r="C3" s="1">
@@ -10250,7 +10250,7 @@
         <v>81</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:AF18" si="1">R2+32</f>
+        <f t="shared" ref="R3:AF15" si="1">R2+32</f>
         <v>82</v>
       </c>
       <c r="S3" s="1">
@@ -10314,7 +10314,7 @@
         <v>65</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" ref="AI3:AX18" si="2">AI2+32</f>
+        <f t="shared" ref="AI3:AX14" si="2">AI2+32</f>
         <v>66</v>
       </c>
       <c r="AJ3" s="2">
@@ -10378,7 +10378,7 @@
         <v>81</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:BM18" si="3">AY2+32</f>
+        <f t="shared" ref="AY3:BM15" si="3">AY2+32</f>
         <v>82</v>
       </c>
       <c r="AZ3" s="1">
@@ -10442,7 +10442,7 @@
         <v>65</v>
       </c>
       <c r="BP3" s="1">
-        <f t="shared" ref="BP3:CE18" si="4">BP2+32</f>
+        <f t="shared" ref="BP3:CE14" si="4">BP2+32</f>
         <v>66</v>
       </c>
       <c r="BQ3" s="1">
@@ -10506,7 +10506,7 @@
         <v>81</v>
       </c>
       <c r="CF3" s="1">
-        <f t="shared" ref="CF3:CT18" si="5">CF2+32</f>
+        <f t="shared" ref="CF3:CT15" si="5">CF2+32</f>
         <v>82</v>
       </c>
       <c r="CG3" s="1">
@@ -10570,7 +10570,7 @@
         <v>65</v>
       </c>
       <c r="CW3" s="1">
-        <f t="shared" ref="CW3:DL18" si="6">CW2+32</f>
+        <f t="shared" ref="CW3:DL14" si="6">CW2+32</f>
         <v>66</v>
       </c>
       <c r="CX3" s="1">
@@ -10634,7 +10634,7 @@
         <v>81</v>
       </c>
       <c r="DM3" s="1">
-        <f t="shared" ref="DM3:EA18" si="7">DM2+32</f>
+        <f t="shared" ref="DM3:EA15" si="7">DM2+32</f>
         <v>82</v>
       </c>
       <c r="DN3" s="2">
@@ -10694,7 +10694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:P18" si="8">A3+32</f>
         <v>97</v>
@@ -11208,7 +11208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -11722,7 +11722,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
@@ -12236,7 +12236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="8"/>
         <v>193</v>
@@ -12750,7 +12750,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="8"/>
         <v>225</v>
@@ -13264,7 +13264,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -13778,7 +13778,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="8"/>
         <v>289</v>
@@ -14292,7 +14292,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="8"/>
         <v>321</v>
@@ -14806,7 +14806,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="8"/>
         <v>353</v>
@@ -15320,7 +15320,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="8"/>
         <v>385</v>
@@ -15834,7 +15834,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="8"/>
         <v>417</v>
@@ -16348,7 +16348,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="8"/>
         <v>449</v>
@@ -16862,7 +16862,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="8"/>
         <v>481</v>
@@ -17376,7 +17376,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="8"/>
         <v>513</v>
@@ -17890,7 +17890,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -18413,13 +18413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249BA451-DB1C-4DAC-B78C-8609A48C230E}">
   <dimension ref="A1:EA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="BV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="DP1" sqref="DP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -19191,13 +19191,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+32</f>
         <v>65</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:Q18" si="0">B2+32</f>
+        <f t="shared" ref="B3:Q14" si="0">B2+32</f>
         <v>66</v>
       </c>
       <c r="C3" s="1">
@@ -19261,7 +19261,7 @@
         <v>81</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:AF18" si="1">R2+32</f>
+        <f t="shared" ref="R3:AF15" si="1">R2+32</f>
         <v>82</v>
       </c>
       <c r="S3" s="1">
@@ -19325,7 +19325,7 @@
         <v>65</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AX18" si="2">AI2+32</f>
+        <f t="shared" ref="AI3:AX14" si="2">AI2+32</f>
         <v>66</v>
       </c>
       <c r="AJ3" s="1">
@@ -19389,7 +19389,7 @@
         <v>81</v>
       </c>
       <c r="AY3" s="2">
-        <f t="shared" ref="AY3:BM18" si="3">AY2+32</f>
+        <f t="shared" ref="AY3:BM15" si="3">AY2+32</f>
         <v>82</v>
       </c>
       <c r="AZ3" s="1">
@@ -19453,7 +19453,7 @@
         <v>65</v>
       </c>
       <c r="BP3" s="1">
-        <f t="shared" ref="BP3:CE18" si="4">BP2+32</f>
+        <f t="shared" ref="BP3:CE14" si="4">BP2+32</f>
         <v>66</v>
       </c>
       <c r="BQ3" s="1">
@@ -19517,7 +19517,7 @@
         <v>81</v>
       </c>
       <c r="CF3" s="1">
-        <f t="shared" ref="CF3:CT18" si="5">CF2+32</f>
+        <f t="shared" ref="CF3:CT15" si="5">CF2+32</f>
         <v>82</v>
       </c>
       <c r="CG3" s="1">
@@ -19581,7 +19581,7 @@
         <v>65</v>
       </c>
       <c r="CW3" s="2">
-        <f t="shared" ref="CW3:DL18" si="6">CW2+32</f>
+        <f t="shared" ref="CW3:DL14" si="6">CW2+32</f>
         <v>66</v>
       </c>
       <c r="CX3" s="2">
@@ -19645,7 +19645,7 @@
         <v>81</v>
       </c>
       <c r="DM3" s="2">
-        <f t="shared" ref="DM3:EA18" si="7">DM2+32</f>
+        <f t="shared" ref="DM3:EA15" si="7">DM2+32</f>
         <v>82</v>
       </c>
       <c r="DN3" s="2">
@@ -19705,7 +19705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:P18" si="8">A3+32</f>
         <v>97</v>
@@ -20219,7 +20219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -20733,7 +20733,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
@@ -21247,7 +21247,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="8"/>
         <v>193</v>
@@ -21761,7 +21761,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="8"/>
         <v>225</v>
@@ -22275,7 +22275,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -22789,7 +22789,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="8"/>
         <v>289</v>
@@ -23303,7 +23303,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="8"/>
         <v>321</v>
@@ -23817,7 +23817,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="8"/>
         <v>353</v>
@@ -24331,7 +24331,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="8"/>
         <v>385</v>
@@ -24845,7 +24845,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="8"/>
         <v>417</v>
@@ -25359,7 +25359,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="8"/>
         <v>449</v>
@@ -25873,7 +25873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="8"/>
         <v>481</v>
@@ -26387,7 +26387,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="8"/>
         <v>513</v>
@@ -26901,7 +26901,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="8"/>
         <v>545</v>

--- a/documentos/Mapas.xlsx
+++ b/documentos/Mapas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusti\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Informatica_II\Proyecto_Final\videojuego\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793338D0-3BF5-4BED-A97A-2A6BFB0ADC60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E7E2C-07AC-4E35-BBA1-453408FC5BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nivel_1" sheetId="1" r:id="rId1"/>
@@ -390,13 +390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DA12" sqref="DA10:DB12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+32</f>
         <v>65</v>
@@ -1682,7 +1682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A18" si="7">A3+32</f>
         <v>97</v>
@@ -2196,7 +2196,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -2710,7 +2710,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="7"/>
         <v>161</v>
@@ -3224,7 +3224,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="7"/>
         <v>193</v>
@@ -3738,7 +3738,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="7"/>
         <v>225</v>
@@ -4252,7 +4252,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="7"/>
         <v>257</v>
@@ -4766,7 +4766,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="7"/>
         <v>289</v>
@@ -5280,7 +5280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="7"/>
         <v>321</v>
@@ -5794,7 +5794,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="7"/>
         <v>353</v>
@@ -6308,7 +6308,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="7"/>
         <v>385</v>
@@ -6822,7 +6822,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="7"/>
         <v>417</v>
@@ -7336,7 +7336,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="7"/>
         <v>449</v>
@@ -7850,7 +7850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -8364,7 +8364,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -8878,7 +8878,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="7"/>
         <v>545</v>
@@ -9406,9 +9406,9 @@
       <selection activeCell="AI3" sqref="AI3:AP3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+32</f>
         <v>65</v>
@@ -10694,7 +10694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:P18" si="8">A3+32</f>
         <v>97</v>
@@ -11208,7 +11208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -11722,7 +11722,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
@@ -12236,7 +12236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="8"/>
         <v>193</v>
@@ -12750,7 +12750,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="8"/>
         <v>225</v>
@@ -13264,7 +13264,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -13778,7 +13778,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="8"/>
         <v>289</v>
@@ -14292,7 +14292,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="8"/>
         <v>321</v>
@@ -14806,7 +14806,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="8"/>
         <v>353</v>
@@ -15320,7 +15320,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="8"/>
         <v>385</v>
@@ -15834,7 +15834,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="8"/>
         <v>417</v>
@@ -16348,7 +16348,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="8"/>
         <v>449</v>
@@ -16862,7 +16862,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="8"/>
         <v>481</v>
@@ -17376,7 +17376,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="8"/>
         <v>513</v>
@@ -17890,7 +17890,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -18417,9 +18417,9 @@
       <selection activeCell="DP1" sqref="DP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+32</f>
         <v>65</v>
@@ -19705,7 +19705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:P18" si="8">A3+32</f>
         <v>97</v>
@@ -20219,7 +20219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -20733,7 +20733,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="8"/>
         <v>161</v>
@@ -21247,7 +21247,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="8"/>
         <v>193</v>
@@ -21761,7 +21761,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="8"/>
         <v>225</v>
@@ -22275,7 +22275,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -22789,7 +22789,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="8"/>
         <v>289</v>
@@ -23303,7 +23303,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="8"/>
         <v>321</v>
@@ -23817,7 +23817,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="8"/>
         <v>353</v>
@@ -24331,7 +24331,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="8"/>
         <v>385</v>
@@ -24845,7 +24845,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="8"/>
         <v>417</v>
@@ -25359,7 +25359,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="8"/>
         <v>449</v>
@@ -25873,7 +25873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="8"/>
         <v>481</v>
@@ -26387,7 +26387,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="8"/>
         <v>513</v>
@@ -26901,7 +26901,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:131" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="8"/>
         <v>545</v>

--- a/documentos/Mapas.xlsx
+++ b/documentos/Mapas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Informatica_II\Proyecto_Final\videojuego\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Proyecto_final\videojuego\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E7E2C-07AC-4E35-BBA1-453408FC5BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68D46D-146D-4508-905C-04818A32FB58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nivel_1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView topLeftCell="CK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DW10" sqref="CV1:DW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9402,8 +9402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB086A-82B5-48F3-9940-F61763E06514}">
   <dimension ref="A1:EA18"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3:AP3"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DW10" sqref="CV1:DW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18413,8 +18413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249BA451-DB1C-4DAC-B78C-8609A48C230E}">
   <dimension ref="A1:EA18"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DP1" sqref="DP1"/>
+    <sheetView topLeftCell="CA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="EA16" sqref="EA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22757,7 +22757,7 @@
         <v>280</v>
       </c>
       <c r="DT9" s="1">
-        <f t="shared" si="7"/>
+        <f>DT8+32</f>
         <v>281</v>
       </c>
       <c r="DU9" s="1">
